--- a/Code/Results/Cases/Case_5_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_184/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.038850441727841</v>
+        <v>1.068598123028721</v>
       </c>
       <c r="D2">
-        <v>1.050994252211006</v>
+        <v>1.069214107346037</v>
       </c>
       <c r="E2">
-        <v>1.048821348044371</v>
+        <v>1.072716216237676</v>
       </c>
       <c r="F2">
-        <v>1.057391251417776</v>
+        <v>1.081869338050028</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059376803426612</v>
+        <v>1.053098109137426</v>
       </c>
       <c r="J2">
-        <v>1.059928140743387</v>
+        <v>1.073537116518704</v>
       </c>
       <c r="K2">
-        <v>1.061786089825888</v>
+        <v>1.07191721343545</v>
       </c>
       <c r="L2">
-        <v>1.0596399791669</v>
+        <v>1.075409992178965</v>
       </c>
       <c r="M2">
-        <v>1.068105003501483</v>
+        <v>1.084539036760271</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.044358946580526</v>
+        <v>1.069752685081887</v>
       </c>
       <c r="D3">
-        <v>1.055204058045088</v>
+        <v>1.070115331736703</v>
       </c>
       <c r="E3">
-        <v>1.053454487175433</v>
+        <v>1.073732100620998</v>
       </c>
       <c r="F3">
-        <v>1.062238341166279</v>
+        <v>1.082935817633668</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061250205232082</v>
+        <v>1.053430970584871</v>
       </c>
       <c r="J3">
-        <v>1.06370928278128</v>
+        <v>1.07434753643135</v>
       </c>
       <c r="K3">
-        <v>1.065176151111767</v>
+        <v>1.072634353799943</v>
       </c>
       <c r="L3">
-        <v>1.063446212711174</v>
+        <v>1.076242183385786</v>
       </c>
       <c r="M3">
-        <v>1.072132302658561</v>
+        <v>1.085423441781775</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.04784391261259</v>
+        <v>1.070499949551975</v>
       </c>
       <c r="D4">
-        <v>1.057870402105413</v>
+        <v>1.070698609005514</v>
       </c>
       <c r="E4">
-        <v>1.056391019051465</v>
+        <v>1.074389896539056</v>
       </c>
       <c r="F4">
-        <v>1.065310766947311</v>
+        <v>1.083626430059324</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062426408758748</v>
+        <v>1.053645243351831</v>
       </c>
       <c r="J4">
-        <v>1.066098187241732</v>
+        <v>1.074871529106606</v>
       </c>
       <c r="K4">
-        <v>1.067317165274218</v>
+        <v>1.073097879451308</v>
       </c>
       <c r="L4">
-        <v>1.065853352796389</v>
+        <v>1.076780502638637</v>
       </c>
       <c r="M4">
-        <v>1.074680020100017</v>
+        <v>1.0859956330061</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.049290762303096</v>
+        <v>1.070814144591256</v>
       </c>
       <c r="D5">
-        <v>1.05897804631212</v>
+        <v>1.070943848465059</v>
       </c>
       <c r="E5">
-        <v>1.057611412005513</v>
+        <v>1.074666541792544</v>
       </c>
       <c r="F5">
-        <v>1.066587707058764</v>
+        <v>1.083916890066406</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062912531659796</v>
+        <v>1.053735057681415</v>
       </c>
       <c r="J5">
-        <v>1.067089167371341</v>
+        <v>1.075091719204988</v>
       </c>
       <c r="K5">
-        <v>1.068205109915616</v>
+        <v>1.073292623020768</v>
       </c>
       <c r="L5">
-        <v>1.066852466213637</v>
+        <v>1.077006772778794</v>
       </c>
       <c r="M5">
-        <v>1.075737666150741</v>
+        <v>1.086236163523281</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.049532647550158</v>
+        <v>1.070866901981097</v>
       </c>
       <c r="D6">
-        <v>1.059163260148112</v>
+        <v>1.07098502698538</v>
       </c>
       <c r="E6">
-        <v>1.057815509282113</v>
+        <v>1.074712998070246</v>
       </c>
       <c r="F6">
-        <v>1.0668012654429</v>
+        <v>1.083965666998633</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062993671526977</v>
+        <v>1.053750122307586</v>
       </c>
       <c r="J6">
-        <v>1.067254790757202</v>
+        <v>1.075128684440243</v>
       </c>
       <c r="K6">
-        <v>1.068353500594363</v>
+        <v>1.073325314132525</v>
       </c>
       <c r="L6">
-        <v>1.067019482276549</v>
+        <v>1.077044762228377</v>
       </c>
       <c r="M6">
-        <v>1.075914477592667</v>
+        <v>1.086276548560274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.047863316121443</v>
+        <v>1.070504147663639</v>
       </c>
       <c r="D7">
-        <v>1.057885254039263</v>
+        <v>1.070701885790724</v>
       </c>
       <c r="E7">
-        <v>1.056407380760862</v>
+        <v>1.074393592662782</v>
       </c>
       <c r="F7">
-        <v>1.065327886497332</v>
+        <v>1.083630310702992</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062432936834071</v>
+        <v>1.053646444500265</v>
       </c>
       <c r="J7">
-        <v>1.06611148043321</v>
+        <v>1.074874471676215</v>
       </c>
       <c r="K7">
-        <v>1.06732907714877</v>
+        <v>1.073100482106217</v>
       </c>
       <c r="L7">
-        <v>1.065866752845016</v>
+        <v>1.076783526225622</v>
       </c>
       <c r="M7">
-        <v>1.074694204457413</v>
+        <v>1.085998847060025</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.04072899207428</v>
+        <v>1.068988274617784</v>
       </c>
       <c r="D8">
-        <v>1.052429243120884</v>
+        <v>1.069518654389779</v>
       </c>
       <c r="E8">
-        <v>1.050400215252446</v>
+        <v>1.073059445739118</v>
       </c>
       <c r="F8">
-        <v>1.05904296822355</v>
+        <v>1.082229650287651</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060017551618361</v>
+        <v>1.053210831228346</v>
       </c>
       <c r="J8">
-        <v>1.061218268504704</v>
+        <v>1.073811085270119</v>
       </c>
       <c r="K8">
-        <v>1.062942943942416</v>
+        <v>1.072159680409148</v>
       </c>
       <c r="L8">
-        <v>1.06093816533245</v>
+        <v>1.075691269080399</v>
       </c>
       <c r="M8">
-        <v>1.069478425774857</v>
+        <v>1.084837941715139</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.027511750292309</v>
+        <v>1.066318506330669</v>
       </c>
       <c r="D9">
-        <v>1.042348221944368</v>
+        <v>1.067434613358311</v>
       </c>
       <c r="E9">
-        <v>1.039316655400923</v>
+        <v>1.070711963607995</v>
       </c>
       <c r="F9">
-        <v>1.047449176867606</v>
+        <v>1.079765559901797</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055472617415675</v>
+        <v>1.052434717154804</v>
       </c>
       <c r="J9">
-        <v>1.052129050971164</v>
+        <v>1.071934169495963</v>
       </c>
       <c r="K9">
-        <v>1.054789660619394</v>
+        <v>1.070497945570388</v>
       </c>
       <c r="L9">
-        <v>1.051802501445132</v>
+        <v>1.073765314589346</v>
       </c>
       <c r="M9">
-        <v>1.05981663014161</v>
+        <v>1.08279168104341</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.018209552308137</v>
+        <v>1.064539556177625</v>
       </c>
       <c r="D10">
-        <v>1.035275965518941</v>
+        <v>1.066045908775603</v>
       </c>
       <c r="E10">
-        <v>1.03155088556385</v>
+        <v>1.069149299354002</v>
       </c>
       <c r="F10">
-        <v>1.039327328363897</v>
+        <v>1.078125557279785</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052229097020299</v>
+        <v>1.051911586127511</v>
       </c>
       <c r="J10">
-        <v>1.045718870030689</v>
+        <v>1.070680803198111</v>
       </c>
       <c r="K10">
-        <v>1.049036230347093</v>
+        <v>1.069387483238042</v>
       </c>
       <c r="L10">
-        <v>1.045372924845452</v>
+        <v>1.072480495256541</v>
       </c>
       <c r="M10">
-        <v>1.053021053982744</v>
+        <v>1.081427103033606</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.014051223674422</v>
+        <v>1.063769453377603</v>
       </c>
       <c r="D11">
-        <v>1.032120935736173</v>
+        <v>1.065444740842335</v>
       </c>
       <c r="E11">
-        <v>1.028088582028795</v>
+        <v>1.068473198884212</v>
       </c>
       <c r="F11">
-        <v>1.035706584675038</v>
+        <v>1.077416063191965</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050769168217484</v>
+        <v>1.05168370674739</v>
       </c>
       <c r="J11">
-        <v>1.042850917036033</v>
+        <v>1.070137583336886</v>
       </c>
       <c r="K11">
-        <v>1.046461498001301</v>
+        <v>1.068906013591176</v>
       </c>
       <c r="L11">
-        <v>1.042499541749522</v>
+        <v>1.071923951071887</v>
       </c>
       <c r="M11">
-        <v>1.049985143469475</v>
+        <v>1.080836128338913</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.012485731659305</v>
+        <v>1.06348343113237</v>
       </c>
       <c r="D12">
-        <v>1.030934224879583</v>
+        <v>1.065221462857187</v>
       </c>
       <c r="E12">
-        <v>1.026786593288942</v>
+        <v>1.068222146543281</v>
       </c>
       <c r="F12">
-        <v>1.03434506035208</v>
+        <v>1.077152621134449</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050218104774079</v>
+        <v>1.051598857713459</v>
       </c>
       <c r="J12">
-        <v>1.041770914231471</v>
+        <v>1.069935731226748</v>
       </c>
       <c r="K12">
-        <v>1.045491838646179</v>
+        <v>1.06872707915533</v>
       </c>
       <c r="L12">
-        <v>1.041417989397172</v>
+        <v>1.07171719414725</v>
       </c>
       <c r="M12">
-        <v>1.048842573209436</v>
+        <v>1.080616598258584</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.012822503216554</v>
+        <v>1.06354478261336</v>
       </c>
       <c r="D13">
-        <v>1.031189462458678</v>
+        <v>1.065269355722893</v>
       </c>
       <c r="E13">
-        <v>1.027066611680764</v>
+        <v>1.068275994438387</v>
       </c>
       <c r="F13">
-        <v>1.034637881028742</v>
+        <v>1.077209126025423</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050336714714751</v>
+        <v>1.051617067374778</v>
       </c>
       <c r="J13">
-        <v>1.042003258923362</v>
+        <v>1.069979032637344</v>
       </c>
       <c r="K13">
-        <v>1.045700447966731</v>
+        <v>1.068765465509159</v>
       </c>
       <c r="L13">
-        <v>1.041650644951165</v>
+        <v>1.071761545644865</v>
       </c>
       <c r="M13">
-        <v>1.049088347310905</v>
+        <v>1.080663688923118</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.013922254018327</v>
+        <v>1.063745810119465</v>
       </c>
       <c r="D14">
-        <v>1.032023148865267</v>
+        <v>1.065426284154547</v>
       </c>
       <c r="E14">
-        <v>1.027981290137945</v>
+        <v>1.068452445158282</v>
       </c>
       <c r="F14">
-        <v>1.035594385774874</v>
+        <v>1.077394285039472</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050723798992967</v>
+        <v>1.051676697271981</v>
       </c>
       <c r="J14">
-        <v>1.042761949064994</v>
+        <v>1.070120899732244</v>
       </c>
       <c r="K14">
-        <v>1.046381621311329</v>
+        <v>1.068891224757519</v>
       </c>
       <c r="L14">
-        <v>1.042410436024926</v>
+        <v>1.071906861126735</v>
       </c>
       <c r="M14">
-        <v>1.049891007446582</v>
+        <v>1.080817982236921</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.014597035762067</v>
+        <v>1.06386967351149</v>
       </c>
       <c r="D15">
-        <v>1.032534823344201</v>
+        <v>1.065522975928065</v>
       </c>
       <c r="E15">
-        <v>1.02854271210942</v>
+        <v>1.068561173061768</v>
       </c>
       <c r="F15">
-        <v>1.03618148629393</v>
+        <v>1.077508380286039</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050961116801635</v>
+        <v>1.051713410119415</v>
       </c>
       <c r="J15">
-        <v>1.043227426277514</v>
+        <v>1.070208298641626</v>
       </c>
       <c r="K15">
-        <v>1.046799530251032</v>
+        <v>1.068968696563868</v>
       </c>
       <c r="L15">
-        <v>1.0428766541769</v>
+        <v>1.071996390592004</v>
       </c>
       <c r="M15">
-        <v>1.050383551529302</v>
+        <v>1.080913045343965</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.018482669870244</v>
+        <v>1.064590669375618</v>
       </c>
       <c r="D16">
-        <v>1.035483329159068</v>
+        <v>1.066085809475757</v>
       </c>
       <c r="E16">
-        <v>1.031778487060323</v>
+        <v>1.069194181350922</v>
       </c>
       <c r="F16">
-        <v>1.039565351633183</v>
+        <v>1.078172657488172</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05232478172762</v>
+        <v>1.051926681062425</v>
       </c>
       <c r="J16">
-        <v>1.04590719096882</v>
+        <v>1.070716844263061</v>
       </c>
       <c r="K16">
-        <v>1.049205285823862</v>
+        <v>1.06941942345737</v>
       </c>
       <c r="L16">
-        <v>1.045561670485029</v>
+        <v>1.072517426838241</v>
       </c>
       <c r="M16">
-        <v>1.053220497423835</v>
+        <v>1.081466321879405</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.020884219024044</v>
+        <v>1.06504298237719</v>
       </c>
       <c r="D17">
-        <v>1.037307442268245</v>
+        <v>1.066438900312277</v>
       </c>
       <c r="E17">
-        <v>1.033780864177581</v>
+        <v>1.069591396105844</v>
       </c>
       <c r="F17">
-        <v>1.041659452270832</v>
+        <v>1.078589511664597</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053165018724097</v>
+        <v>1.0520600960342</v>
       </c>
       <c r="J17">
-        <v>1.04756284636775</v>
+        <v>1.071035706318366</v>
       </c>
       <c r="K17">
-        <v>1.050691497816926</v>
+        <v>1.069701983148324</v>
       </c>
       <c r="L17">
-        <v>1.047221429286342</v>
+        <v>1.072844202999432</v>
       </c>
       <c r="M17">
-        <v>1.054974446866041</v>
+        <v>1.081813349784479</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.022272513009804</v>
+        <v>1.065306827716249</v>
       </c>
       <c r="D18">
-        <v>1.038362534867939</v>
+        <v>1.066644866728696</v>
       </c>
       <c r="E18">
-        <v>1.034939268679079</v>
+        <v>1.069823137199999</v>
       </c>
       <c r="F18">
-        <v>1.042870950121778</v>
+        <v>1.078832717211376</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053649795543076</v>
+        <v>1.052137783499864</v>
       </c>
       <c r="J18">
-        <v>1.048519717347621</v>
+        <v>1.071221644556739</v>
       </c>
       <c r="K18">
-        <v>1.051550381400328</v>
+        <v>1.069866734457671</v>
       </c>
       <c r="L18">
-        <v>1.04818097855208</v>
+        <v>1.07303478586275</v>
       </c>
       <c r="M18">
-        <v>1.055988548302731</v>
+        <v>1.082015755327844</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.022743805016758</v>
+        <v>1.065396795380063</v>
       </c>
       <c r="D19">
-        <v>1.038720812830849</v>
+        <v>1.066715098415335</v>
       </c>
       <c r="E19">
-        <v>1.03533266302126</v>
+        <v>1.069902163825715</v>
       </c>
       <c r="F19">
-        <v>1.043282380109509</v>
+        <v>1.078915654465154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053814202691483</v>
+        <v>1.052164250663171</v>
       </c>
       <c r="J19">
-        <v>1.048844510061539</v>
+        <v>1.071285036457551</v>
       </c>
       <c r="K19">
-        <v>1.051841903566842</v>
+        <v>1.069922900059846</v>
       </c>
       <c r="L19">
-        <v>1.048506732189023</v>
+        <v>1.073099766284904</v>
       </c>
       <c r="M19">
-        <v>1.056332838232437</v>
+        <v>1.082084768704693</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.020627856437531</v>
+        <v>1.064994451533234</v>
       </c>
       <c r="D20">
-        <v>1.037112656903589</v>
+        <v>1.066401015506899</v>
       </c>
       <c r="E20">
-        <v>1.033567022365412</v>
+        <v>1.069548773298029</v>
       </c>
       <c r="F20">
-        <v>1.041435811845128</v>
+        <v>1.078544780790559</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053075422557647</v>
+        <v>1.052045795445004</v>
       </c>
       <c r="J20">
-        <v>1.047386130989585</v>
+        <v>1.07100150046723</v>
       </c>
       <c r="K20">
-        <v>1.0505328739065</v>
+        <v>1.069671673476179</v>
       </c>
       <c r="L20">
-        <v>1.047044244041255</v>
+        <v>1.072809145095038</v>
       </c>
       <c r="M20">
-        <v>1.054787196230285</v>
+        <v>1.081776118006501</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.013598992947352</v>
+        <v>1.063686611758109</v>
       </c>
       <c r="D21">
-        <v>1.031778064650925</v>
+        <v>1.065380072020457</v>
       </c>
       <c r="E21">
-        <v>1.027712388127044</v>
+        <v>1.068400482571409</v>
       </c>
       <c r="F21">
-        <v>1.035313186217666</v>
+        <v>1.077339757686321</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050610058503833</v>
+        <v>1.051659143399351</v>
       </c>
       <c r="J21">
-        <v>1.042538947184489</v>
+        <v>1.070079125511349</v>
       </c>
       <c r="K21">
-        <v>1.04618140592486</v>
+        <v>1.068854194422154</v>
       </c>
       <c r="L21">
-        <v>1.04218709686044</v>
+        <v>1.071864070214434</v>
       </c>
       <c r="M21">
-        <v>1.049655062636259</v>
+        <v>1.080772547138706</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.009057992234951</v>
+        <v>1.062864483795813</v>
       </c>
       <c r="D22">
-        <v>1.028337928503468</v>
+        <v>1.064738294794951</v>
       </c>
       <c r="E22">
-        <v>1.023938616624358</v>
+        <v>1.067678977931867</v>
       </c>
       <c r="F22">
-        <v>1.031366936551472</v>
+        <v>1.076582665063284</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049008932737501</v>
+        <v>1.051414856756399</v>
       </c>
       <c r="J22">
-        <v>1.039405705675779</v>
+        <v>1.069498751497279</v>
       </c>
       <c r="K22">
-        <v>1.043368159922328</v>
+        <v>1.068339662163456</v>
       </c>
       <c r="L22">
-        <v>1.039050307694952</v>
+        <v>1.071269680980906</v>
       </c>
       <c r="M22">
-        <v>1.046341607374025</v>
+        <v>1.080141470975537</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.011477263663963</v>
+        <v>1.06330029427609</v>
       </c>
       <c r="D23">
-        <v>1.030170076100469</v>
+        <v>1.065078500688652</v>
       </c>
       <c r="E23">
-        <v>1.025948296022917</v>
+        <v>1.068061416574682</v>
       </c>
       <c r="F23">
-        <v>1.033468443100696</v>
+        <v>1.076983961812737</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049862718759772</v>
+        <v>1.051544469920947</v>
       </c>
       <c r="J23">
-        <v>1.041075115433822</v>
+        <v>1.069806460591793</v>
       </c>
       <c r="K23">
-        <v>1.044867109824616</v>
+        <v>1.068612477718944</v>
       </c>
       <c r="L23">
-        <v>1.040721332861539</v>
+        <v>1.071584795401161</v>
       </c>
       <c r="M23">
-        <v>1.048106658236916</v>
+        <v>1.080476025122901</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.020743734153663</v>
+        <v>1.065016380474159</v>
       </c>
       <c r="D24">
-        <v>1.037200699409131</v>
+        <v>1.066418133974766</v>
       </c>
       <c r="E24">
-        <v>1.033663677711989</v>
+        <v>1.069568032547983</v>
       </c>
       <c r="F24">
-        <v>1.041536896019198</v>
+        <v>1.07856499255674</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053115923613564</v>
+        <v>1.052052257671086</v>
       </c>
       <c r="J24">
-        <v>1.04746600833295</v>
+        <v>1.071016956768974</v>
       </c>
       <c r="K24">
-        <v>1.050604573887057</v>
+        <v>1.069685369300617</v>
       </c>
       <c r="L24">
-        <v>1.047124332818655</v>
+        <v>1.072824986315054</v>
       </c>
       <c r="M24">
-        <v>1.054871834319466</v>
+        <v>1.081792941474958</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.031010797147167</v>
+        <v>1.067008544571608</v>
       </c>
       <c r="D25">
-        <v>1.045013439490452</v>
+        <v>1.067973272865025</v>
       </c>
       <c r="E25">
-        <v>1.042245168135193</v>
+        <v>1.071318434472575</v>
       </c>
       <c r="F25">
-        <v>1.05051225232006</v>
+        <v>1.080402106142702</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056683718238881</v>
+        <v>1.052636369625017</v>
       </c>
       <c r="J25">
-        <v>1.054537770577213</v>
+        <v>1.072419764741992</v>
       </c>
       <c r="K25">
-        <v>1.056950973569752</v>
+        <v>1.07092800886474</v>
       </c>
       <c r="L25">
-        <v>1.054221259493305</v>
+        <v>1.074263369463478</v>
       </c>
       <c r="M25">
-        <v>1.062373956590285</v>
+        <v>1.08332075952549</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_184/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_184/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.068598123028721</v>
+        <v>1.03885044172784</v>
       </c>
       <c r="D2">
-        <v>1.069214107346037</v>
+        <v>1.050994252211005</v>
       </c>
       <c r="E2">
-        <v>1.072716216237676</v>
+        <v>1.04882134804437</v>
       </c>
       <c r="F2">
-        <v>1.081869338050028</v>
+        <v>1.057391251417775</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053098109137426</v>
+        <v>1.059376803426612</v>
       </c>
       <c r="J2">
-        <v>1.073537116518704</v>
+        <v>1.059928140743386</v>
       </c>
       <c r="K2">
-        <v>1.07191721343545</v>
+        <v>1.061786089825887</v>
       </c>
       <c r="L2">
-        <v>1.075409992178965</v>
+        <v>1.059639979166899</v>
       </c>
       <c r="M2">
-        <v>1.084539036760271</v>
+        <v>1.068105003501482</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.069752685081887</v>
+        <v>1.044358946580526</v>
       </c>
       <c r="D3">
-        <v>1.070115331736703</v>
+        <v>1.055204058045089</v>
       </c>
       <c r="E3">
-        <v>1.073732100620998</v>
+        <v>1.053454487175433</v>
       </c>
       <c r="F3">
-        <v>1.082935817633668</v>
+        <v>1.062238341166279</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053430970584871</v>
+        <v>1.061250205232082</v>
       </c>
       <c r="J3">
-        <v>1.07434753643135</v>
+        <v>1.06370928278128</v>
       </c>
       <c r="K3">
-        <v>1.072634353799943</v>
+        <v>1.065176151111767</v>
       </c>
       <c r="L3">
-        <v>1.076242183385786</v>
+        <v>1.063446212711174</v>
       </c>
       <c r="M3">
-        <v>1.085423441781775</v>
+        <v>1.072132302658561</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.070499949551975</v>
+        <v>1.04784391261259</v>
       </c>
       <c r="D4">
-        <v>1.070698609005514</v>
+        <v>1.057870402105413</v>
       </c>
       <c r="E4">
-        <v>1.074389896539056</v>
+        <v>1.056391019051466</v>
       </c>
       <c r="F4">
-        <v>1.083626430059324</v>
+        <v>1.065310766947311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053645243351831</v>
+        <v>1.062426408758748</v>
       </c>
       <c r="J4">
-        <v>1.074871529106606</v>
+        <v>1.066098187241732</v>
       </c>
       <c r="K4">
-        <v>1.073097879451308</v>
+        <v>1.067317165274218</v>
       </c>
       <c r="L4">
-        <v>1.076780502638637</v>
+        <v>1.065853352796389</v>
       </c>
       <c r="M4">
-        <v>1.0859956330061</v>
+        <v>1.074680020100018</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.070814144591256</v>
+        <v>1.049290762303096</v>
       </c>
       <c r="D5">
-        <v>1.070943848465059</v>
+        <v>1.058978046312119</v>
       </c>
       <c r="E5">
-        <v>1.074666541792544</v>
+        <v>1.057611412005513</v>
       </c>
       <c r="F5">
-        <v>1.083916890066406</v>
+        <v>1.066587707058764</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053735057681415</v>
+        <v>1.062912531659796</v>
       </c>
       <c r="J5">
-        <v>1.075091719204988</v>
+        <v>1.067089167371341</v>
       </c>
       <c r="K5">
-        <v>1.073292623020768</v>
+        <v>1.068205109915615</v>
       </c>
       <c r="L5">
-        <v>1.077006772778794</v>
+        <v>1.066852466213637</v>
       </c>
       <c r="M5">
-        <v>1.086236163523281</v>
+        <v>1.075737666150741</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.070866901981097</v>
+        <v>1.049532647550159</v>
       </c>
       <c r="D6">
-        <v>1.07098502698538</v>
+        <v>1.059163260148113</v>
       </c>
       <c r="E6">
-        <v>1.074712998070246</v>
+        <v>1.057815509282114</v>
       </c>
       <c r="F6">
-        <v>1.083965666998633</v>
+        <v>1.0668012654429</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053750122307586</v>
+        <v>1.062993671526977</v>
       </c>
       <c r="J6">
-        <v>1.075128684440243</v>
+        <v>1.067254790757202</v>
       </c>
       <c r="K6">
-        <v>1.073325314132525</v>
+        <v>1.068353500594363</v>
       </c>
       <c r="L6">
-        <v>1.077044762228377</v>
+        <v>1.067019482276549</v>
       </c>
       <c r="M6">
-        <v>1.086276548560274</v>
+        <v>1.075914477592667</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.070504147663639</v>
+        <v>1.047863316121441</v>
       </c>
       <c r="D7">
-        <v>1.070701885790724</v>
+        <v>1.057885254039261</v>
       </c>
       <c r="E7">
-        <v>1.074393592662782</v>
+        <v>1.05640738076086</v>
       </c>
       <c r="F7">
-        <v>1.083630310702992</v>
+        <v>1.06532788649733</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053646444500265</v>
+        <v>1.06243293683407</v>
       </c>
       <c r="J7">
-        <v>1.074874471676215</v>
+        <v>1.066111480433209</v>
       </c>
       <c r="K7">
-        <v>1.073100482106217</v>
+        <v>1.067329077148769</v>
       </c>
       <c r="L7">
-        <v>1.076783526225622</v>
+        <v>1.065866752845014</v>
       </c>
       <c r="M7">
-        <v>1.085998847060025</v>
+        <v>1.074694204457412</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.068988274617784</v>
+        <v>1.040728992074279</v>
       </c>
       <c r="D8">
-        <v>1.069518654389779</v>
+        <v>1.052429243120884</v>
       </c>
       <c r="E8">
-        <v>1.073059445739118</v>
+        <v>1.050400215252446</v>
       </c>
       <c r="F8">
-        <v>1.082229650287651</v>
+        <v>1.05904296822355</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053210831228346</v>
+        <v>1.060017551618361</v>
       </c>
       <c r="J8">
-        <v>1.073811085270119</v>
+        <v>1.061218268504703</v>
       </c>
       <c r="K8">
-        <v>1.072159680409148</v>
+        <v>1.062942943942415</v>
       </c>
       <c r="L8">
-        <v>1.075691269080399</v>
+        <v>1.060938165332449</v>
       </c>
       <c r="M8">
-        <v>1.084837941715139</v>
+        <v>1.069478425774856</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066318506330669</v>
+        <v>1.027511750292307</v>
       </c>
       <c r="D9">
-        <v>1.067434613358311</v>
+        <v>1.042348221944367</v>
       </c>
       <c r="E9">
-        <v>1.070711963607995</v>
+        <v>1.039316655400921</v>
       </c>
       <c r="F9">
-        <v>1.079765559901797</v>
+        <v>1.047449176867604</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052434717154804</v>
+        <v>1.055472617415675</v>
       </c>
       <c r="J9">
-        <v>1.071934169495963</v>
+        <v>1.052129050971162</v>
       </c>
       <c r="K9">
-        <v>1.070497945570388</v>
+        <v>1.054789660619393</v>
       </c>
       <c r="L9">
-        <v>1.073765314589346</v>
+        <v>1.05180250144513</v>
       </c>
       <c r="M9">
-        <v>1.08279168104341</v>
+        <v>1.059816630141608</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.064539556177625</v>
+        <v>1.018209552308135</v>
       </c>
       <c r="D10">
-        <v>1.066045908775603</v>
+        <v>1.035275965518939</v>
       </c>
       <c r="E10">
-        <v>1.069149299354002</v>
+        <v>1.031550885563848</v>
       </c>
       <c r="F10">
-        <v>1.078125557279785</v>
+        <v>1.039327328363895</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051911586127511</v>
+        <v>1.052229097020298</v>
       </c>
       <c r="J10">
-        <v>1.070680803198111</v>
+        <v>1.045718870030687</v>
       </c>
       <c r="K10">
-        <v>1.069387483238042</v>
+        <v>1.049036230347092</v>
       </c>
       <c r="L10">
-        <v>1.072480495256541</v>
+        <v>1.04537292484545</v>
       </c>
       <c r="M10">
-        <v>1.081427103033606</v>
+        <v>1.053021053982742</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.063769453377603</v>
+        <v>1.014051223674419</v>
       </c>
       <c r="D11">
-        <v>1.065444740842335</v>
+        <v>1.032120935736171</v>
       </c>
       <c r="E11">
-        <v>1.068473198884212</v>
+        <v>1.028088582028792</v>
       </c>
       <c r="F11">
-        <v>1.077416063191965</v>
+        <v>1.035706584675036</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05168370674739</v>
+        <v>1.050769168217483</v>
       </c>
       <c r="J11">
-        <v>1.070137583336886</v>
+        <v>1.042850917036031</v>
       </c>
       <c r="K11">
-        <v>1.068906013591176</v>
+        <v>1.046461498001299</v>
       </c>
       <c r="L11">
-        <v>1.071923951071887</v>
+        <v>1.04249954174952</v>
       </c>
       <c r="M11">
-        <v>1.080836128338913</v>
+        <v>1.049985143469473</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.06348343113237</v>
+        <v>1.012485731659305</v>
       </c>
       <c r="D12">
-        <v>1.065221462857187</v>
+        <v>1.030934224879584</v>
       </c>
       <c r="E12">
-        <v>1.068222146543281</v>
+        <v>1.026786593288942</v>
       </c>
       <c r="F12">
-        <v>1.077152621134449</v>
+        <v>1.034345060352081</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051598857713459</v>
+        <v>1.050218104774079</v>
       </c>
       <c r="J12">
-        <v>1.069935731226748</v>
+        <v>1.041770914231472</v>
       </c>
       <c r="K12">
-        <v>1.06872707915533</v>
+        <v>1.04549183864618</v>
       </c>
       <c r="L12">
-        <v>1.07171719414725</v>
+        <v>1.041417989397172</v>
       </c>
       <c r="M12">
-        <v>1.080616598258584</v>
+        <v>1.048842573209437</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.06354478261336</v>
+        <v>1.012822503216551</v>
       </c>
       <c r="D13">
-        <v>1.065269355722893</v>
+        <v>1.031189462458676</v>
       </c>
       <c r="E13">
-        <v>1.068275994438387</v>
+        <v>1.027066611680762</v>
       </c>
       <c r="F13">
-        <v>1.077209126025423</v>
+        <v>1.03463788102874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051617067374778</v>
+        <v>1.05033671471475</v>
       </c>
       <c r="J13">
-        <v>1.069979032637344</v>
+        <v>1.04200325892336</v>
       </c>
       <c r="K13">
-        <v>1.068765465509159</v>
+        <v>1.045700447966729</v>
       </c>
       <c r="L13">
-        <v>1.071761545644865</v>
+        <v>1.041650644951162</v>
       </c>
       <c r="M13">
-        <v>1.080663688923118</v>
+        <v>1.049088347310903</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.063745810119465</v>
+        <v>1.013922254018326</v>
       </c>
       <c r="D14">
-        <v>1.065426284154547</v>
+        <v>1.032023148865267</v>
       </c>
       <c r="E14">
-        <v>1.068452445158282</v>
+        <v>1.027981290137945</v>
       </c>
       <c r="F14">
-        <v>1.077394285039472</v>
+        <v>1.035594385774874</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051676697271981</v>
+        <v>1.050723798992966</v>
       </c>
       <c r="J14">
-        <v>1.070120899732244</v>
+        <v>1.042761949064994</v>
       </c>
       <c r="K14">
-        <v>1.068891224757519</v>
+        <v>1.046381621311328</v>
       </c>
       <c r="L14">
-        <v>1.071906861126735</v>
+        <v>1.042410436024925</v>
       </c>
       <c r="M14">
-        <v>1.080817982236921</v>
+        <v>1.049891007446582</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.06386967351149</v>
+        <v>1.014597035762067</v>
       </c>
       <c r="D15">
-        <v>1.065522975928065</v>
+        <v>1.032534823344201</v>
       </c>
       <c r="E15">
-        <v>1.068561173061768</v>
+        <v>1.028542712109419</v>
       </c>
       <c r="F15">
-        <v>1.077508380286039</v>
+        <v>1.03618148629393</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051713410119415</v>
+        <v>1.050961116801635</v>
       </c>
       <c r="J15">
-        <v>1.070208298641626</v>
+        <v>1.043227426277513</v>
       </c>
       <c r="K15">
-        <v>1.068968696563868</v>
+        <v>1.046799530251031</v>
       </c>
       <c r="L15">
-        <v>1.071996390592004</v>
+        <v>1.0428766541769</v>
       </c>
       <c r="M15">
-        <v>1.080913045343965</v>
+        <v>1.050383551529302</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064590669375618</v>
+        <v>1.018482669870243</v>
       </c>
       <c r="D16">
-        <v>1.066085809475757</v>
+        <v>1.035483329159067</v>
       </c>
       <c r="E16">
-        <v>1.069194181350922</v>
+        <v>1.031778487060322</v>
       </c>
       <c r="F16">
-        <v>1.078172657488172</v>
+        <v>1.039565351633182</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051926681062425</v>
+        <v>1.05232478172762</v>
       </c>
       <c r="J16">
-        <v>1.070716844263061</v>
+        <v>1.045907190968819</v>
       </c>
       <c r="K16">
-        <v>1.06941942345737</v>
+        <v>1.049205285823861</v>
       </c>
       <c r="L16">
-        <v>1.072517426838241</v>
+        <v>1.045561670485028</v>
       </c>
       <c r="M16">
-        <v>1.081466321879405</v>
+        <v>1.053220497423834</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06504298237719</v>
+        <v>1.020884219024043</v>
       </c>
       <c r="D17">
-        <v>1.066438900312277</v>
+        <v>1.037307442268244</v>
       </c>
       <c r="E17">
-        <v>1.069591396105844</v>
+        <v>1.033780864177579</v>
       </c>
       <c r="F17">
-        <v>1.078589511664597</v>
+        <v>1.041659452270831</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0520600960342</v>
+        <v>1.053165018724097</v>
       </c>
       <c r="J17">
-        <v>1.071035706318366</v>
+        <v>1.047562846367749</v>
       </c>
       <c r="K17">
-        <v>1.069701983148324</v>
+        <v>1.050691497816925</v>
       </c>
       <c r="L17">
-        <v>1.072844202999432</v>
+        <v>1.047221429286341</v>
       </c>
       <c r="M17">
-        <v>1.081813349784479</v>
+        <v>1.05497444686604</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.065306827716249</v>
+        <v>1.022272513009802</v>
       </c>
       <c r="D18">
-        <v>1.066644866728696</v>
+        <v>1.038362534867938</v>
       </c>
       <c r="E18">
-        <v>1.069823137199999</v>
+        <v>1.034939268679077</v>
       </c>
       <c r="F18">
-        <v>1.078832717211376</v>
+        <v>1.042870950121776</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052137783499864</v>
+        <v>1.053649795543075</v>
       </c>
       <c r="J18">
-        <v>1.071221644556739</v>
+        <v>1.048519717347619</v>
       </c>
       <c r="K18">
-        <v>1.069866734457671</v>
+        <v>1.051550381400326</v>
       </c>
       <c r="L18">
-        <v>1.07303478586275</v>
+        <v>1.048180978552078</v>
       </c>
       <c r="M18">
-        <v>1.082015755327844</v>
+        <v>1.05598854830273</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065396795380063</v>
+        <v>1.022743805016756</v>
       </c>
       <c r="D19">
-        <v>1.066715098415335</v>
+        <v>1.038720812830848</v>
       </c>
       <c r="E19">
-        <v>1.069902163825715</v>
+        <v>1.035332663021258</v>
       </c>
       <c r="F19">
-        <v>1.078915654465154</v>
+        <v>1.043282380109507</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052164250663171</v>
+        <v>1.053814202691482</v>
       </c>
       <c r="J19">
-        <v>1.071285036457551</v>
+        <v>1.048844510061538</v>
       </c>
       <c r="K19">
-        <v>1.069922900059846</v>
+        <v>1.051841903566841</v>
       </c>
       <c r="L19">
-        <v>1.073099766284904</v>
+        <v>1.048506732189021</v>
       </c>
       <c r="M19">
-        <v>1.082084768704693</v>
+        <v>1.056332838232435</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064994451533234</v>
+        <v>1.020627856437532</v>
       </c>
       <c r="D20">
-        <v>1.066401015506899</v>
+        <v>1.03711265690359</v>
       </c>
       <c r="E20">
-        <v>1.069548773298029</v>
+        <v>1.033567022365412</v>
       </c>
       <c r="F20">
-        <v>1.078544780790559</v>
+        <v>1.041435811845128</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052045795445004</v>
+        <v>1.053075422557648</v>
       </c>
       <c r="J20">
-        <v>1.07100150046723</v>
+        <v>1.047386130989586</v>
       </c>
       <c r="K20">
-        <v>1.069671673476179</v>
+        <v>1.050532873906501</v>
       </c>
       <c r="L20">
-        <v>1.072809145095038</v>
+        <v>1.047044244041255</v>
       </c>
       <c r="M20">
-        <v>1.081776118006501</v>
+        <v>1.054787196230286</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.063686611758109</v>
+        <v>1.013598992947351</v>
       </c>
       <c r="D21">
-        <v>1.065380072020457</v>
+        <v>1.031778064650924</v>
       </c>
       <c r="E21">
-        <v>1.068400482571409</v>
+        <v>1.027712388127043</v>
       </c>
       <c r="F21">
-        <v>1.077339757686321</v>
+        <v>1.035313186217666</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051659143399351</v>
+        <v>1.050610058503833</v>
       </c>
       <c r="J21">
-        <v>1.070079125511349</v>
+        <v>1.042538947184488</v>
       </c>
       <c r="K21">
-        <v>1.068854194422154</v>
+        <v>1.046181405924859</v>
       </c>
       <c r="L21">
-        <v>1.071864070214434</v>
+        <v>1.04218709686044</v>
       </c>
       <c r="M21">
-        <v>1.080772547138706</v>
+        <v>1.049655062636258</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.062864483795813</v>
+        <v>1.009057992234951</v>
       </c>
       <c r="D22">
-        <v>1.064738294794951</v>
+        <v>1.028337928503468</v>
       </c>
       <c r="E22">
-        <v>1.067678977931867</v>
+        <v>1.023938616624358</v>
       </c>
       <c r="F22">
-        <v>1.076582665063284</v>
+        <v>1.031366936551472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051414856756399</v>
+        <v>1.049008932737501</v>
       </c>
       <c r="J22">
-        <v>1.069498751497279</v>
+        <v>1.039405705675779</v>
       </c>
       <c r="K22">
-        <v>1.068339662163456</v>
+        <v>1.043368159922328</v>
       </c>
       <c r="L22">
-        <v>1.071269680980906</v>
+        <v>1.039050307694952</v>
       </c>
       <c r="M22">
-        <v>1.080141470975537</v>
+        <v>1.046341607374025</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06330029427609</v>
+        <v>1.011477263663964</v>
       </c>
       <c r="D23">
-        <v>1.065078500688652</v>
+        <v>1.03017007610047</v>
       </c>
       <c r="E23">
-        <v>1.068061416574682</v>
+        <v>1.025948296022918</v>
       </c>
       <c r="F23">
-        <v>1.076983961812737</v>
+        <v>1.033468443100698</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051544469920947</v>
+        <v>1.049862718759772</v>
       </c>
       <c r="J23">
-        <v>1.069806460591793</v>
+        <v>1.041075115433823</v>
       </c>
       <c r="K23">
-        <v>1.068612477718944</v>
+        <v>1.044867109824617</v>
       </c>
       <c r="L23">
-        <v>1.071584795401161</v>
+        <v>1.040721332861539</v>
       </c>
       <c r="M23">
-        <v>1.080476025122901</v>
+        <v>1.048106658236917</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.065016380474159</v>
+        <v>1.020743734153664</v>
       </c>
       <c r="D24">
-        <v>1.066418133974766</v>
+        <v>1.037200699409131</v>
       </c>
       <c r="E24">
-        <v>1.069568032547983</v>
+        <v>1.033663677711989</v>
       </c>
       <c r="F24">
-        <v>1.07856499255674</v>
+        <v>1.041536896019198</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052052257671086</v>
+        <v>1.053115923613564</v>
       </c>
       <c r="J24">
-        <v>1.071016956768974</v>
+        <v>1.04746600833295</v>
       </c>
       <c r="K24">
-        <v>1.069685369300617</v>
+        <v>1.050604573887057</v>
       </c>
       <c r="L24">
-        <v>1.072824986315054</v>
+        <v>1.047124332818655</v>
       </c>
       <c r="M24">
-        <v>1.081792941474958</v>
+        <v>1.054871834319466</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.067008544571608</v>
+        <v>1.031010797147166</v>
       </c>
       <c r="D25">
-        <v>1.067973272865025</v>
+        <v>1.045013439490452</v>
       </c>
       <c r="E25">
-        <v>1.071318434472575</v>
+        <v>1.042245168135192</v>
       </c>
       <c r="F25">
-        <v>1.080402106142702</v>
+        <v>1.050512252320059</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052636369625017</v>
+        <v>1.056683718238881</v>
       </c>
       <c r="J25">
-        <v>1.072419764741992</v>
+        <v>1.054537770577213</v>
       </c>
       <c r="K25">
-        <v>1.07092800886474</v>
+        <v>1.056950973569752</v>
       </c>
       <c r="L25">
-        <v>1.074263369463478</v>
+        <v>1.054221259493304</v>
       </c>
       <c r="M25">
-        <v>1.08332075952549</v>
+        <v>1.062373956590285</v>
       </c>
     </row>
   </sheetData>
